--- a/323成交單.xlsx
+++ b/323成交單.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Heishminghan/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="26955" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="來自_Tssco_的查詢" localSheetId="0" hidden="1">工作表1!$A$1:$N$679</definedName>
+    <definedName name="來自_Tssco_的查詢" localSheetId="0" hidden="1">sheet1!$A$1:$N$679</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1469,8 +1482,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1557,111 +1570,111 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1671,7 +1684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1682,7 +1695,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1697,10 +1710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1712,10 +1725,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1727,10 +1740,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1742,10 +1755,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1757,10 +1770,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1772,10 +1785,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1787,10 +1800,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1802,10 +1815,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1817,26 +1830,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="逗號" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1855,7 +1868,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1872,7 +1885,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1909,7 +1922,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1928,7 +1941,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1947,7 +1960,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1966,7 +1979,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2206,14 +2219,14 @@
     <tableColumn id="5" uniqueName="5" name="Trader" queryTableFieldId="5" dataDxfId="10"/>
     <tableColumn id="6" uniqueName="6" name="StockID" queryTableFieldId="6" dataDxfId="9"/>
     <tableColumn id="7" uniqueName="7" name="Type" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" uniqueName="8" name="Bvolume" queryTableFieldId="8" dataDxfId="7" dataCellStyle="千分位"/>
-    <tableColumn id="9" uniqueName="9" name="SVolume" queryTableFieldId="9" dataDxfId="6" dataCellStyle="千分位"/>
-    <tableColumn id="10" uniqueName="10" name="DealVolume" queryTableFieldId="10" dataDxfId="5" dataCellStyle="千分位"/>
-    <tableColumn id="11" uniqueName="11" name="DealAmt" queryTableFieldId="11" dataDxfId="4" dataCellStyle="千分位"/>
+    <tableColumn id="8" uniqueName="8" name="Bvolume" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" uniqueName="9" name="SVolume" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="10" uniqueName="10" name="DealVolume" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="11" uniqueName="11" name="DealAmt" queryTableFieldId="11" dataDxfId="4"/>
     <tableColumn id="12" uniqueName="12" name="Tag" queryTableFieldId="12" dataDxfId="3"/>
-    <tableColumn id="13" uniqueName="13" name="Tax" queryTableFieldId="13" dataDxfId="2" dataCellStyle="千分位"/>
-    <tableColumn id="14" uniqueName="14" name="Fee" queryTableFieldId="14" dataDxfId="1" dataCellStyle="千分位"/>
-    <tableColumn id="15" uniqueName="15" name="欄1" queryTableFieldId="16" dataDxfId="0" dataCellStyle="千分位"/>
+    <tableColumn id="13" uniqueName="13" name="Tax" queryTableFieldId="13" dataDxfId="2"/>
+    <tableColumn id="14" uniqueName="14" name="Fee" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" uniqueName="15" name="欄1" queryTableFieldId="16" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2262,12 +2275,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2297,12 +2310,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2506,32 +2519,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1"/>
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M655" sqref="M655"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +2591,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>42786</v>
       </c>
@@ -2625,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>42786</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>42786</v>
       </c>
@@ -2719,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>42786</v>
       </c>
@@ -2766,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>42786</v>
       </c>
@@ -2813,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>42786</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>42786</v>
       </c>
@@ -2907,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>42786</v>
       </c>
@@ -2954,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>42786</v>
       </c>
@@ -3001,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>42786</v>
       </c>
@@ -3048,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>42786</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>42786</v>
       </c>
@@ -3142,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>42786</v>
       </c>
@@ -3189,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>42786</v>
       </c>
@@ -3236,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>42786</v>
       </c>
@@ -3283,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>42786</v>
       </c>
@@ -3330,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
         <v>42786</v>
       </c>
@@ -3377,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
         <v>42786</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>42786</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>42786</v>
       </c>
@@ -3518,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
         <v>42786</v>
       </c>
@@ -3565,7 +3578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>42786</v>
       </c>
@@ -3612,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>42786</v>
       </c>
@@ -3659,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>42786</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>42786</v>
       </c>
@@ -3753,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
         <v>42786</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>42786</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>42786</v>
       </c>
@@ -3894,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
         <v>42786</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
         <v>42786</v>
       </c>
@@ -3988,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>42786</v>
       </c>
@@ -4035,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>42786</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>42786</v>
       </c>
@@ -4129,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="9">
         <v>42786</v>
       </c>
@@ -4176,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
         <v>42786</v>
       </c>
@@ -4223,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>42786</v>
       </c>
@@ -4270,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="9">
         <v>42786</v>
       </c>
@@ -4317,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>42786</v>
       </c>
@@ -4364,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="9">
         <v>42786</v>
       </c>
@@ -4411,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>42786</v>
       </c>
@@ -4458,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>42786</v>
       </c>
@@ -4505,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>42786</v>
       </c>
@@ -4552,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>42786</v>
       </c>
@@ -4599,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
         <v>42786</v>
       </c>
@@ -4646,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>42786</v>
       </c>
@@ -4693,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>42786</v>
       </c>
@@ -4740,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>42786</v>
       </c>
@@ -4787,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
         <v>42786</v>
       </c>
@@ -4834,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
         <v>42786</v>
       </c>
@@ -4881,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>42786</v>
       </c>
@@ -4928,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>42786</v>
       </c>
@@ -4975,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>42786</v>
       </c>
@@ -5022,7 +5035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>42786</v>
       </c>
@@ -5069,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
         <v>42786</v>
       </c>
@@ -5116,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>42786</v>
       </c>
@@ -5163,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>42786</v>
       </c>
@@ -5210,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>42786</v>
       </c>
@@ -5257,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
         <v>42786</v>
       </c>
@@ -5304,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>42786</v>
       </c>
@@ -5351,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>42786</v>
       </c>
@@ -5398,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>42786</v>
       </c>
@@ -5445,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
         <v>42786</v>
       </c>
@@ -5492,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>42786</v>
       </c>
@@ -5539,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>42786</v>
       </c>
@@ -5586,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>42786</v>
       </c>
@@ -5633,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>42786</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>42786</v>
       </c>
@@ -5727,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>42786</v>
       </c>
@@ -5774,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
         <v>42786</v>
       </c>
@@ -5821,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
         <v>42786</v>
       </c>
@@ -5868,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>42786</v>
       </c>
@@ -5915,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>42786</v>
       </c>
@@ -5962,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>42786</v>
       </c>
@@ -6009,7 +6022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>42786</v>
       </c>
@@ -6056,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>42786</v>
       </c>
@@ -6103,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>42786</v>
       </c>
@@ -6150,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>42786</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="9">
         <v>42786</v>
       </c>
@@ -6244,7 +6257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="9">
         <v>42786</v>
       </c>
@@ -6291,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="9">
         <v>42786</v>
       </c>
@@ -6338,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="9">
         <v>42786</v>
       </c>
@@ -6385,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="9">
         <v>42786</v>
       </c>
@@ -6432,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="9">
         <v>42786</v>
       </c>
@@ -6479,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="9">
         <v>42786</v>
       </c>
@@ -6526,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="9">
         <v>42786</v>
       </c>
@@ -6573,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="9">
         <v>42786</v>
       </c>
@@ -6620,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="9">
         <v>42786</v>
       </c>
@@ -6667,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="9">
         <v>42786</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="9">
         <v>42786</v>
       </c>
@@ -6761,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="9">
         <v>42786</v>
       </c>
@@ -6808,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="9">
         <v>42786</v>
       </c>
@@ -6855,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="9">
         <v>42786</v>
       </c>
@@ -6902,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="9">
         <v>42786</v>
       </c>
@@ -6949,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="9">
         <v>42786</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="9">
         <v>42786</v>
       </c>
@@ -7043,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
         <v>42795</v>
       </c>
@@ -7090,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
         <v>42795</v>
       </c>
@@ -7137,7 +7150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="14">
         <v>42795</v>
       </c>
@@ -7184,7 +7197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="14">
         <v>42795</v>
       </c>
@@ -7231,7 +7244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="14">
         <v>42795</v>
       </c>
@@ -7278,7 +7291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="14">
         <v>42795</v>
       </c>
@@ -7325,7 +7338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="14">
         <v>42795</v>
       </c>
@@ -7372,7 +7385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="14">
         <v>42795</v>
       </c>
@@ -7419,7 +7432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="14">
         <v>42795</v>
       </c>
@@ -7466,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="14">
         <v>42795</v>
       </c>
@@ -7513,7 +7526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="14">
         <v>42795</v>
       </c>
@@ -7560,7 +7573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="14">
         <v>42795</v>
       </c>
@@ -7607,7 +7620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="14">
         <v>42795</v>
       </c>
@@ -7654,7 +7667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="14">
         <v>42795</v>
       </c>
@@ -7701,7 +7714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="14">
         <v>42795</v>
       </c>
@@ -7748,7 +7761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="14">
         <v>42795</v>
       </c>
@@ -7795,7 +7808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="14">
         <v>42795</v>
       </c>
@@ -7842,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="14">
         <v>42795</v>
       </c>
@@ -7889,7 +7902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="14">
         <v>42795</v>
       </c>
@@ -7936,7 +7949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="14">
         <v>42795</v>
       </c>
@@ -7983,7 +7996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="14">
         <v>42795</v>
       </c>
@@ -8030,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="14">
         <v>42795</v>
       </c>
@@ -8077,7 +8090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="14">
         <v>42795</v>
       </c>
@@ -8124,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="14">
         <v>42795</v>
       </c>
@@ -8171,7 +8184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="14">
         <v>42795</v>
       </c>
@@ -8218,7 +8231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="14">
         <v>42795</v>
       </c>
@@ -8265,7 +8278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="14">
         <v>42795</v>
       </c>
@@ -8312,7 +8325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="14">
         <v>42795</v>
       </c>
@@ -8359,7 +8372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="14">
         <v>42795</v>
       </c>
@@ -8406,7 +8419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="14">
         <v>42795</v>
       </c>
@@ -8453,7 +8466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="14">
         <v>42795</v>
       </c>
@@ -8500,7 +8513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="14">
         <v>42795</v>
       </c>
@@ -8547,7 +8560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="14">
         <v>42795</v>
       </c>
@@ -8594,7 +8607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="14">
         <v>42795</v>
       </c>
@@ -8641,7 +8654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="14">
         <v>42795</v>
       </c>
@@ -8688,7 +8701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="14">
         <v>42795</v>
       </c>
@@ -8735,7 +8748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="14">
         <v>42795</v>
       </c>
@@ -8782,7 +8795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="14">
         <v>42795</v>
       </c>
@@ -8829,7 +8842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="14">
         <v>42795</v>
       </c>
@@ -8876,7 +8889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="14">
         <v>42795</v>
       </c>
@@ -8923,7 +8936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="14">
         <v>42795</v>
       </c>
@@ -8970,7 +8983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="14">
         <v>42795</v>
       </c>
@@ -9017,7 +9030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="14">
         <v>42795</v>
       </c>
@@ -9064,7 +9077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="14">
         <v>42795</v>
       </c>
@@ -9111,7 +9124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="14">
         <v>42795</v>
       </c>
@@ -9158,7 +9171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="14">
         <v>42795</v>
       </c>
@@ -9205,7 +9218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="14">
         <v>42795</v>
       </c>
@@ -9252,7 +9265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="14">
         <v>42795</v>
       </c>
@@ -9299,7 +9312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="14">
         <v>42795</v>
       </c>
@@ -9346,7 +9359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="14">
         <v>42795</v>
       </c>
@@ -9393,7 +9406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="14">
         <v>42795</v>
       </c>
@@ -9440,7 +9453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="14">
         <v>42795</v>
       </c>
@@ -9487,7 +9500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="14">
         <v>42795</v>
       </c>
@@ -9534,7 +9547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="14">
         <v>42795</v>
       </c>
@@ -9581,7 +9594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="14">
         <v>42795</v>
       </c>
@@ -9628,7 +9641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="14">
         <v>42795</v>
       </c>
@@ -9675,7 +9688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="14">
         <v>42795</v>
       </c>
@@ -9722,7 +9735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="14">
         <v>42795</v>
       </c>
@@ -9769,7 +9782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="14">
         <v>42795</v>
       </c>
@@ -9816,7 +9829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="14">
         <v>42795</v>
       </c>
@@ -9863,7 +9876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="14">
         <v>42795</v>
       </c>
@@ -9910,7 +9923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="14">
         <v>42795</v>
       </c>
@@ -9957,7 +9970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="14">
         <v>42795</v>
       </c>
@@ -10004,7 +10017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="14">
         <v>42795</v>
       </c>
@@ -10051,7 +10064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="14">
         <v>42795</v>
       </c>
@@ -10098,7 +10111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="14">
         <v>42795</v>
       </c>
@@ -10145,7 +10158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="14">
         <v>42795</v>
       </c>
@@ -10192,7 +10205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="14">
         <v>42795</v>
       </c>
@@ -10239,7 +10252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="19">
         <v>42796</v>
       </c>
@@ -10286,7 +10299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="19">
         <v>42796</v>
       </c>
@@ -10333,7 +10346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="19">
         <v>42796</v>
       </c>
@@ -10380,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="19">
         <v>42796</v>
       </c>
@@ -10427,7 +10440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="19">
         <v>42796</v>
       </c>
@@ -10474,7 +10487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="19">
         <v>42796</v>
       </c>
@@ -10521,7 +10534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A171" s="19">
         <v>42796</v>
       </c>
@@ -10568,7 +10581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A172" s="19">
         <v>42796</v>
       </c>
@@ -10615,7 +10628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A173" s="19">
         <v>42796</v>
       </c>
@@ -10662,7 +10675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A174" s="19">
         <v>42796</v>
       </c>
@@ -10709,7 +10722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A175" s="19">
         <v>42796</v>
       </c>
@@ -10756,7 +10769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A176" s="19">
         <v>42796</v>
       </c>
@@ -10803,7 +10816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A177" s="19">
         <v>42796</v>
       </c>
@@ -10850,7 +10863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A178" s="19">
         <v>42796</v>
       </c>
@@ -10897,7 +10910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="19">
         <v>42796</v>
       </c>
@@ -10944,7 +10957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="19">
         <v>42796</v>
       </c>
@@ -10991,7 +11004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="19">
         <v>42796</v>
       </c>
@@ -11038,7 +11051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A182" s="19">
         <v>42796</v>
       </c>
@@ -11085,7 +11098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="19">
         <v>42796</v>
       </c>
@@ -11132,7 +11145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A184" s="19">
         <v>42796</v>
       </c>
@@ -11179,7 +11192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A185" s="19">
         <v>42796</v>
       </c>
@@ -11226,7 +11239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A186" s="19">
         <v>42796</v>
       </c>
@@ -11273,7 +11286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A187" s="19">
         <v>42796</v>
       </c>
@@ -11320,7 +11333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A188" s="19">
         <v>42796</v>
       </c>
@@ -11367,7 +11380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A189" s="19">
         <v>42796</v>
       </c>
@@ -11414,7 +11427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A190" s="19">
         <v>42796</v>
       </c>
@@ -11461,7 +11474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A191" s="19">
         <v>42796</v>
       </c>
@@ -11508,7 +11521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A192" s="19">
         <v>42796</v>
       </c>
@@ -11555,7 +11568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A193" s="19">
         <v>42796</v>
       </c>
@@ -11602,7 +11615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A194" s="19">
         <v>42796</v>
       </c>
@@ -11649,7 +11662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A195" s="19">
         <v>42796</v>
       </c>
@@ -11696,7 +11709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A196" s="19">
         <v>42796</v>
       </c>
@@ -11743,7 +11756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A197" s="19">
         <v>42796</v>
       </c>
@@ -11790,7 +11803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A198" s="19">
         <v>42796</v>
       </c>
@@ -11837,7 +11850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A199" s="19">
         <v>42796</v>
       </c>
@@ -11884,7 +11897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A200" s="19">
         <v>42796</v>
       </c>
@@ -11931,7 +11944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A201" s="19">
         <v>42796</v>
       </c>
@@ -11978,7 +11991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A202" s="19">
         <v>42796</v>
       </c>
@@ -12025,7 +12038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A203" s="19">
         <v>42796</v>
       </c>
@@ -12072,7 +12085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A204" s="19">
         <v>42796</v>
       </c>
@@ -12119,7 +12132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A205" s="19">
         <v>42796</v>
       </c>
@@ -12166,7 +12179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A206" s="19">
         <v>42796</v>
       </c>
@@ -12213,7 +12226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A207" s="19">
         <v>42796</v>
       </c>
@@ -12260,7 +12273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A208" s="19">
         <v>42796</v>
       </c>
@@ -12307,7 +12320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A209" s="19">
         <v>42796</v>
       </c>
@@ -12354,7 +12367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A210" s="19">
         <v>42796</v>
       </c>
@@ -12401,7 +12414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A211" s="19">
         <v>42796</v>
       </c>
@@ -12448,7 +12461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A212" s="19">
         <v>42796</v>
       </c>
@@ -12495,7 +12508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A213" s="19">
         <v>42796</v>
       </c>
@@ -12542,7 +12555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A214" s="19">
         <v>42796</v>
       </c>
@@ -12589,7 +12602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A215" s="19">
         <v>42796</v>
       </c>
@@ -12636,7 +12649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A216" s="19">
         <v>42796</v>
       </c>
@@ -12683,7 +12696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A217" s="19">
         <v>42796</v>
       </c>
@@ -12730,7 +12743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A218" s="19">
         <v>42796</v>
       </c>
@@ -12777,7 +12790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A219" s="19">
         <v>42796</v>
       </c>
@@ -12824,7 +12837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A220" s="19">
         <v>42796</v>
       </c>
@@ -12871,7 +12884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A221" s="19">
         <v>42796</v>
       </c>
@@ -12918,7 +12931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A222" s="19">
         <v>42796</v>
       </c>
@@ -12965,7 +12978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A223" s="19">
         <v>42796</v>
       </c>
@@ -13012,7 +13025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A224" s="19">
         <v>42796</v>
       </c>
@@ -13059,7 +13072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A225" s="19">
         <v>42796</v>
       </c>
@@ -13106,7 +13119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A226" s="19">
         <v>42796</v>
       </c>
@@ -13153,7 +13166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A227" s="19">
         <v>42796</v>
       </c>
@@ -13200,7 +13213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A228" s="19">
         <v>42796</v>
       </c>
@@ -13247,7 +13260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A229" s="19">
         <v>42796</v>
       </c>
@@ -13294,7 +13307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A230" s="19">
         <v>42796</v>
       </c>
@@ -13341,7 +13354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A231" s="19">
         <v>42796</v>
       </c>
@@ -13388,7 +13401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A232" s="19">
         <v>42796</v>
       </c>
@@ -13435,7 +13448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A233" s="19">
         <v>42796</v>
       </c>
@@ -13482,7 +13495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A234" s="19">
         <v>42796</v>
       </c>
@@ -13529,7 +13542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A235" s="19">
         <v>42796</v>
       </c>
@@ -13576,7 +13589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A236" s="19">
         <v>42796</v>
       </c>
@@ -13623,7 +13636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A237" s="19">
         <v>42796</v>
       </c>
@@ -13670,7 +13683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A238" s="19">
         <v>42796</v>
       </c>
@@ -13717,7 +13730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A239" s="19">
         <v>42796</v>
       </c>
@@ -13764,7 +13777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A240" s="19">
         <v>42796</v>
       </c>
@@ -13811,7 +13824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A241" s="19">
         <v>42796</v>
       </c>
@@ -13858,7 +13871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A242" s="19">
         <v>42796</v>
       </c>
@@ -13905,7 +13918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A243" s="19">
         <v>42796</v>
       </c>
@@ -13952,7 +13965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A244" s="19">
         <v>42796</v>
       </c>
@@ -13999,7 +14012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A245" s="19">
         <v>42796</v>
       </c>
@@ -14046,7 +14059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A246" s="19">
         <v>42796</v>
       </c>
@@ -14093,7 +14106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A247" s="19">
         <v>42796</v>
       </c>
@@ -14140,7 +14153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A248" s="19">
         <v>42796</v>
       </c>
@@ -14187,7 +14200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A249" s="19">
         <v>42796</v>
       </c>
@@ -14234,7 +14247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A250" s="19">
         <v>42796</v>
       </c>
@@ -14281,7 +14294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A251" s="19">
         <v>42796</v>
       </c>
@@ -14328,7 +14341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A252" s="19">
         <v>42796</v>
       </c>
@@ -14375,7 +14388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A253" s="19">
         <v>42796</v>
       </c>
@@ -14422,7 +14435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A254" s="19">
         <v>42796</v>
       </c>
@@ -14469,7 +14482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A255" s="19">
         <v>42796</v>
       </c>
@@ -14516,7 +14529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A256" s="19">
         <v>42796</v>
       </c>
@@ -14563,7 +14576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A257" s="19">
         <v>42796</v>
       </c>
@@ -14610,7 +14623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A258" s="19">
         <v>42796</v>
       </c>
@@ -14657,7 +14670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A259" s="19">
         <v>42796</v>
       </c>
@@ -14704,7 +14717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A260" s="19">
         <v>42796</v>
       </c>
@@ -14751,7 +14764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A261" s="19">
         <v>42796</v>
       </c>
@@ -14798,7 +14811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A262" s="19">
         <v>42796</v>
       </c>
@@ -14845,7 +14858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A263" s="19">
         <v>42796</v>
       </c>
@@ -14892,7 +14905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A264" s="19">
         <v>42796</v>
       </c>
@@ -14939,7 +14952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A265" s="19">
         <v>42796</v>
       </c>
@@ -14986,7 +14999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A266" s="19">
         <v>42796</v>
       </c>
@@ -15033,7 +15046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A267" s="19">
         <v>42796</v>
       </c>
@@ -15080,7 +15093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A268" s="19">
         <v>42796</v>
       </c>
@@ -15127,7 +15140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A269" s="19">
         <v>42796</v>
       </c>
@@ -15174,7 +15187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A270" s="19">
         <v>42796</v>
       </c>
@@ -15221,7 +15234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A271" s="19">
         <v>42796</v>
       </c>
@@ -15268,7 +15281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A272" s="19">
         <v>42796</v>
       </c>
@@ -15315,7 +15328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A273" s="19">
         <v>42796</v>
       </c>
@@ -15362,7 +15375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A274" s="19">
         <v>42796</v>
       </c>
@@ -15409,7 +15422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A275" s="19">
         <v>42796</v>
       </c>
@@ -15456,7 +15469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A276" s="19">
         <v>42796</v>
       </c>
@@ -15503,7 +15516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A277" s="19">
         <v>42796</v>
       </c>
@@ -15550,7 +15563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A278" s="19">
         <v>42796</v>
       </c>
@@ -15597,7 +15610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A279" s="19">
         <v>42796</v>
       </c>
@@ -15644,7 +15657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A280" s="19">
         <v>42796</v>
       </c>
@@ -15691,7 +15704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A281" s="19">
         <v>42796</v>
       </c>
@@ -15738,7 +15751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A282" s="19">
         <v>42796</v>
       </c>
@@ -15785,7 +15798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A283" s="24">
         <v>42801</v>
       </c>
@@ -15832,7 +15845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A284" s="24">
         <v>42801</v>
       </c>
@@ -15879,7 +15892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A285" s="24">
         <v>42801</v>
       </c>
@@ -15926,7 +15939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A286" s="29">
         <v>42802</v>
       </c>
@@ -15973,7 +15986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A287" s="29">
         <v>42802</v>
       </c>
@@ -16020,7 +16033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A288" s="29">
         <v>42802</v>
       </c>
@@ -16067,7 +16080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A289" s="29">
         <v>42802</v>
       </c>
@@ -16114,7 +16127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A290" s="34">
         <v>42803</v>
       </c>
@@ -16161,7 +16174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A291" s="34">
         <v>42803</v>
       </c>
@@ -16208,7 +16221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A292" s="34">
         <v>42803</v>
       </c>
@@ -16255,7 +16268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A293" s="34">
         <v>42803</v>
       </c>
@@ -16302,7 +16315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A294" s="34">
         <v>42803</v>
       </c>
@@ -16349,7 +16362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A295" s="34">
         <v>42803</v>
       </c>
@@ -16396,7 +16409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A296" s="34">
         <v>42803</v>
       </c>
@@ -16443,7 +16456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A297" s="34">
         <v>42803</v>
       </c>
@@ -16490,7 +16503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A298" s="34">
         <v>42803</v>
       </c>
@@ -16537,7 +16550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A299" s="34">
         <v>42803</v>
       </c>
@@ -16584,7 +16597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A300" s="34">
         <v>42803</v>
       </c>
@@ -16631,7 +16644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A301" s="34">
         <v>42803</v>
       </c>
@@ -16678,7 +16691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A302" s="34">
         <v>42803</v>
       </c>
@@ -16725,7 +16738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A303" s="34">
         <v>42803</v>
       </c>
@@ -16772,7 +16785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A304" s="34">
         <v>42803</v>
       </c>
@@ -16819,7 +16832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A305" s="34">
         <v>42803</v>
       </c>
@@ -16866,7 +16879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A306" s="34">
         <v>42803</v>
       </c>
@@ -16913,7 +16926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A307" s="34">
         <v>42803</v>
       </c>
@@ -16960,7 +16973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A308" s="34">
         <v>42803</v>
       </c>
@@ -17007,7 +17020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A309" s="34">
         <v>42803</v>
       </c>
@@ -17054,7 +17067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A310" s="34">
         <v>42803</v>
       </c>
@@ -17101,7 +17114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A311" s="34">
         <v>42803</v>
       </c>
@@ -17148,7 +17161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A312" s="34">
         <v>42803</v>
       </c>
@@ -17195,7 +17208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A313" s="34">
         <v>42803</v>
       </c>
@@ -17242,7 +17255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A314" s="34">
         <v>42803</v>
       </c>
@@ -17289,7 +17302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A315" s="34">
         <v>42803</v>
       </c>
@@ -17336,7 +17349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A316" s="34">
         <v>42803</v>
       </c>
@@ -17383,7 +17396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A317" s="34">
         <v>42803</v>
       </c>
@@ -17430,7 +17443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A318" s="34">
         <v>42803</v>
       </c>
@@ -17477,7 +17490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A319" s="34">
         <v>42803</v>
       </c>
@@ -17524,7 +17537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A320" s="34">
         <v>42803</v>
       </c>
@@ -17571,7 +17584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A321" s="34">
         <v>42803</v>
       </c>
@@ -17618,7 +17631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A322" s="34">
         <v>42803</v>
       </c>
@@ -17665,7 +17678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A323" s="34">
         <v>42803</v>
       </c>
@@ -17712,7 +17725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A324" s="34">
         <v>42803</v>
       </c>
@@ -17759,7 +17772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A325" s="34">
         <v>42803</v>
       </c>
@@ -17806,7 +17819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A326" s="34">
         <v>42803</v>
       </c>
@@ -17853,7 +17866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A327" s="34">
         <v>42803</v>
       </c>
@@ -17900,7 +17913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A328" s="34">
         <v>42803</v>
       </c>
@@ -17947,7 +17960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A329" s="34">
         <v>42803</v>
       </c>
@@ -17994,7 +18007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A330" s="34">
         <v>42803</v>
       </c>
@@ -18041,7 +18054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A331" s="34">
         <v>42803</v>
       </c>
@@ -18088,7 +18101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A332" s="34">
         <v>42803</v>
       </c>
@@ -18135,7 +18148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A333" s="34">
         <v>42803</v>
       </c>
@@ -18182,7 +18195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A334" s="34">
         <v>42803</v>
       </c>
@@ -18229,7 +18242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A335" s="34">
         <v>42803</v>
       </c>
@@ -18276,7 +18289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A336" s="34">
         <v>42803</v>
       </c>
@@ -18323,7 +18336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A337" s="34">
         <v>42803</v>
       </c>
@@ -18370,7 +18383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A338" s="34">
         <v>42803</v>
       </c>
@@ -18417,7 +18430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A339" s="34">
         <v>42803</v>
       </c>
@@ -18464,7 +18477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A340" s="34">
         <v>42803</v>
       </c>
@@ -18511,7 +18524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A341" s="34">
         <v>42803</v>
       </c>
@@ -18558,7 +18571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A342" s="34">
         <v>42803</v>
       </c>
@@ -18605,7 +18618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A343" s="34">
         <v>42803</v>
       </c>
@@ -18652,7 +18665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A344" s="34">
         <v>42803</v>
       </c>
@@ -18699,7 +18712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A345" s="34">
         <v>42803</v>
       </c>
@@ -18746,7 +18759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A346" s="34">
         <v>42803</v>
       </c>
@@ -18793,7 +18806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A347" s="34">
         <v>42803</v>
       </c>
@@ -18840,7 +18853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A348" s="34">
         <v>42803</v>
       </c>
@@ -18887,7 +18900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A349" s="34">
         <v>42803</v>
       </c>
@@ -18934,7 +18947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A350" s="34">
         <v>42803</v>
       </c>
@@ -18981,7 +18994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A351" s="34">
         <v>42803</v>
       </c>
@@ -19028,7 +19041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A352" s="34">
         <v>42803</v>
       </c>
@@ -19075,7 +19088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A353" s="34">
         <v>42803</v>
       </c>
@@ -19122,7 +19135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A354" s="34">
         <v>42803</v>
       </c>
@@ -19169,7 +19182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A355" s="34">
         <v>42803</v>
       </c>
@@ -19216,7 +19229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A356" s="34">
         <v>42803</v>
       </c>
@@ -19263,7 +19276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A357" s="34">
         <v>42803</v>
       </c>
@@ -19310,7 +19323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A358" s="34">
         <v>42803</v>
       </c>
@@ -19357,7 +19370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A359" s="34">
         <v>42803</v>
       </c>
@@ -19404,7 +19417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A360" s="34">
         <v>42803</v>
       </c>
@@ -19451,7 +19464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A361" s="34">
         <v>42803</v>
       </c>
@@ -19498,7 +19511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A362" s="34">
         <v>42803</v>
       </c>
@@ -19545,7 +19558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A363" s="34">
         <v>42803</v>
       </c>
@@ -19592,7 +19605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A364" s="34">
         <v>42803</v>
       </c>
@@ -19639,7 +19652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A365" s="34">
         <v>42803</v>
       </c>
@@ -19686,7 +19699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A366" s="34">
         <v>42803</v>
       </c>
@@ -19733,7 +19746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A367" s="34">
         <v>42803</v>
       </c>
@@ -19780,7 +19793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A368" s="34">
         <v>42803</v>
       </c>
@@ -19827,7 +19840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A369" s="34">
         <v>42803</v>
       </c>
@@ -19874,7 +19887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A370" s="34">
         <v>42803</v>
       </c>
@@ -19921,7 +19934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A371" s="34">
         <v>42803</v>
       </c>
@@ -19968,7 +19981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A372" s="34">
         <v>42803</v>
       </c>
@@ -20015,7 +20028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A373" s="34">
         <v>42803</v>
       </c>
@@ -20062,7 +20075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A374" s="34">
         <v>42803</v>
       </c>
@@ -20109,7 +20122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A375" s="34">
         <v>42803</v>
       </c>
@@ -20156,7 +20169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A376" s="34">
         <v>42803</v>
       </c>
@@ -20203,7 +20216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A377" s="34">
         <v>42803</v>
       </c>
@@ -20250,7 +20263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A378" s="34">
         <v>42803</v>
       </c>
@@ -20297,7 +20310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A379" s="34">
         <v>42803</v>
       </c>
@@ -20344,7 +20357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A380" s="9">
         <v>42816</v>
       </c>
@@ -20391,7 +20404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A381" s="9">
         <v>42816</v>
       </c>
@@ -20438,7 +20451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A382" s="9">
         <v>42816</v>
       </c>
@@ -20485,7 +20498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A383" s="9">
         <v>42816</v>
       </c>
@@ -20532,7 +20545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A384" s="9">
         <v>42816</v>
       </c>
@@ -20579,7 +20592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A385" s="9">
         <v>42816</v>
       </c>
@@ -20626,7 +20639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A386" s="9">
         <v>42816</v>
       </c>
@@ -20673,7 +20686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A387" s="9">
         <v>42816</v>
       </c>
@@ -20720,7 +20733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A388" s="9">
         <v>42816</v>
       </c>
@@ -20767,7 +20780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A389" s="9">
         <v>42816</v>
       </c>
@@ -20814,7 +20827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A390" s="9">
         <v>42816</v>
       </c>
@@ -20861,7 +20874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A391" s="9">
         <v>42816</v>
       </c>
@@ -20908,7 +20921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A392" s="9">
         <v>42816</v>
       </c>
@@ -20955,7 +20968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A393" s="9">
         <v>42816</v>
       </c>
@@ -21002,7 +21015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A394" s="9">
         <v>42816</v>
       </c>
@@ -21049,7 +21062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A395" s="9">
         <v>42816</v>
       </c>
@@ -21096,7 +21109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A396" s="9">
         <v>42816</v>
       </c>
@@ -21143,7 +21156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A397" s="9">
         <v>42816</v>
       </c>
@@ -21190,7 +21203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A398" s="9">
         <v>42816</v>
       </c>
@@ -21237,7 +21250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A399" s="9">
         <v>42816</v>
       </c>
@@ -21284,7 +21297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A400" s="9">
         <v>42816</v>
       </c>
@@ -21331,7 +21344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A401" s="9">
         <v>42816</v>
       </c>
@@ -21378,7 +21391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A402" s="9">
         <v>42816</v>
       </c>
@@ -21425,7 +21438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A403" s="9">
         <v>42816</v>
       </c>
@@ -21472,7 +21485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A404" s="9">
         <v>42816</v>
       </c>
@@ -21519,7 +21532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A405" s="9">
         <v>42816</v>
       </c>
@@ -21566,7 +21579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A406" s="9">
         <v>42816</v>
       </c>
@@ -21613,7 +21626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A407" s="9">
         <v>42816</v>
       </c>
@@ -21660,7 +21673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A408" s="9">
         <v>42816</v>
       </c>
@@ -21707,7 +21720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A409" s="9">
         <v>42816</v>
       </c>
@@ -21754,7 +21767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A410" s="9">
         <v>42816</v>
       </c>
@@ -21801,7 +21814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A411" s="9">
         <v>42816</v>
       </c>
@@ -21848,7 +21861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A412" s="9">
         <v>42816</v>
       </c>
@@ -21895,7 +21908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A413" s="9">
         <v>42816</v>
       </c>
@@ -21942,7 +21955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A414" s="9">
         <v>42816</v>
       </c>
@@ -21989,7 +22002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A415" s="9">
         <v>42816</v>
       </c>
@@ -22036,7 +22049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A416" s="9">
         <v>42816</v>
       </c>
@@ -22083,7 +22096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A417" s="9">
         <v>42816</v>
       </c>
@@ -22130,7 +22143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A418" s="9">
         <v>42816</v>
       </c>
@@ -22177,7 +22190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A419" s="9">
         <v>42816</v>
       </c>
@@ -22224,7 +22237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A420" s="9">
         <v>42816</v>
       </c>
@@ -22271,7 +22284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A421" s="9">
         <v>42816</v>
       </c>
@@ -22318,7 +22331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A422" s="9">
         <v>42816</v>
       </c>
@@ -22365,7 +22378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A423" s="9">
         <v>42816</v>
       </c>
@@ -22412,7 +22425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A424" s="9">
         <v>42816</v>
       </c>
@@ -22459,7 +22472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A425" s="9">
         <v>42816</v>
       </c>
@@ -22506,7 +22519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A426" s="9">
         <v>42816</v>
       </c>
@@ -22553,7 +22566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A427" s="9">
         <v>42816</v>
       </c>
@@ -22600,7 +22613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A428" s="9">
         <v>42816</v>
       </c>
@@ -22647,7 +22660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A429" s="9">
         <v>42816</v>
       </c>
@@ -22694,7 +22707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A430" s="9">
         <v>42816</v>
       </c>
@@ -22741,7 +22754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A431" s="9">
         <v>42816</v>
       </c>
@@ -22788,7 +22801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A432" s="9">
         <v>42816</v>
       </c>
@@ -22835,7 +22848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A433" s="9">
         <v>42816</v>
       </c>
@@ -22882,7 +22895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A434" s="9">
         <v>42816</v>
       </c>
@@ -22929,7 +22942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A435" s="9">
         <v>42816</v>
       </c>
@@ -22976,7 +22989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A436" s="9">
         <v>42816</v>
       </c>
@@ -23023,7 +23036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A437" s="9">
         <v>42816</v>
       </c>
@@ -23070,7 +23083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A438" s="9">
         <v>42816</v>
       </c>
@@ -23117,7 +23130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A439" s="9">
         <v>42816</v>
       </c>
@@ -23164,7 +23177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A440" s="9">
         <v>42816</v>
       </c>
@@ -23211,7 +23224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A441" s="9">
         <v>42816</v>
       </c>
@@ -23258,7 +23271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A442" s="9">
         <v>42816</v>
       </c>
@@ -23305,7 +23318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A443" s="9">
         <v>42816</v>
       </c>
@@ -23352,7 +23365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A444" s="9">
         <v>42816</v>
       </c>
@@ -23399,7 +23412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A445" s="9">
         <v>42816</v>
       </c>
@@ -23446,7 +23459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A446" s="9">
         <v>42816</v>
       </c>
@@ -23493,7 +23506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A447" s="9">
         <v>42816</v>
       </c>
@@ -23540,7 +23553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A448" s="9">
         <v>42816</v>
       </c>
@@ -23587,7 +23600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A449" s="9">
         <v>42816</v>
       </c>
@@ -23634,7 +23647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A450" s="9">
         <v>42816</v>
       </c>
@@ -23681,7 +23694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A451" s="9">
         <v>42816</v>
       </c>
@@ -23728,7 +23741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A452" s="9">
         <v>42816</v>
       </c>
@@ -23775,7 +23788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A453" s="9">
         <v>42816</v>
       </c>
@@ -23822,7 +23835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A454" s="9">
         <v>42816</v>
       </c>
@@ -23869,7 +23882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A455" s="9">
         <v>42816</v>
       </c>
@@ -23916,7 +23929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A456" s="9">
         <v>42816</v>
       </c>
@@ -23963,7 +23976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A457" s="9">
         <v>42816</v>
       </c>
@@ -24010,7 +24023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A458" s="9">
         <v>42816</v>
       </c>
@@ -24057,7 +24070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A459" s="9">
         <v>42816</v>
       </c>
@@ -24104,7 +24117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A460" s="9">
         <v>42816</v>
       </c>
@@ -24151,7 +24164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A461" s="9">
         <v>42816</v>
       </c>
@@ -24198,7 +24211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A462" s="9">
         <v>42816</v>
       </c>
@@ -24245,7 +24258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A463" s="9">
         <v>42816</v>
       </c>
@@ -24292,7 +24305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A464" s="9">
         <v>42816</v>
       </c>
@@ -24339,7 +24352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A465" s="9">
         <v>42816</v>
       </c>
@@ -24386,7 +24399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A466" s="9">
         <v>42816</v>
       </c>
@@ -24433,7 +24446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A467" s="9">
         <v>42816</v>
       </c>
@@ -24480,7 +24493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A468" s="9">
         <v>42816</v>
       </c>
@@ -24527,7 +24540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A469" s="9">
         <v>42816</v>
       </c>
@@ -24574,7 +24587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A470" s="9">
         <v>42816</v>
       </c>
@@ -24621,7 +24634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A471" s="9">
         <v>42816</v>
       </c>
@@ -24668,7 +24681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A472" s="9">
         <v>42816</v>
       </c>
@@ -24715,7 +24728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A473" s="9">
         <v>42816</v>
       </c>
@@ -24762,7 +24775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A474" s="9">
         <v>42816</v>
       </c>
@@ -24809,7 +24822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A475" s="9">
         <v>42816</v>
       </c>
@@ -24856,7 +24869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A476" s="9">
         <v>42816</v>
       </c>
@@ -24903,7 +24916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A477" s="9">
         <v>42816</v>
       </c>
@@ -24950,7 +24963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A478" s="9">
         <v>42816</v>
       </c>
@@ -24997,7 +25010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A479" s="9">
         <v>42816</v>
       </c>
@@ -25044,7 +25057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A480" s="9">
         <v>42816</v>
       </c>
@@ -25091,7 +25104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A481" s="39">
         <v>42817</v>
       </c>
@@ -25138,7 +25151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A482" s="39">
         <v>42817</v>
       </c>
@@ -25185,7 +25198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A483" s="14">
         <v>42821</v>
       </c>
@@ -25232,7 +25245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A484" s="14">
         <v>42821</v>
       </c>
@@ -25279,7 +25292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A485" s="14">
         <v>42821</v>
       </c>
@@ -25326,7 +25339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A486" s="14">
         <v>42821</v>
       </c>
@@ -25373,7 +25386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A487" s="14">
         <v>42821</v>
       </c>
@@ -25420,7 +25433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A488" s="14">
         <v>42821</v>
       </c>
@@ -25467,7 +25480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A489" s="14">
         <v>42821</v>
       </c>
@@ -25514,7 +25527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A490" s="14">
         <v>42821</v>
       </c>
@@ -25561,7 +25574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A491" s="14">
         <v>42821</v>
       </c>
@@ -25608,7 +25621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A492" s="14">
         <v>42821</v>
       </c>
@@ -25655,7 +25668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A493" s="14">
         <v>42821</v>
       </c>
@@ -25702,7 +25715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A494" s="14">
         <v>42821</v>
       </c>
@@ -25749,7 +25762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A495" s="14">
         <v>42821</v>
       </c>
@@ -25796,7 +25809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A496" s="14">
         <v>42821</v>
       </c>
@@ -25843,7 +25856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A497" s="14">
         <v>42821</v>
       </c>
@@ -25890,7 +25903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A498" s="14">
         <v>42821</v>
       </c>
@@ -25937,7 +25950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A499" s="14">
         <v>42821</v>
       </c>
@@ -25984,7 +25997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A500" s="14">
         <v>42821</v>
       </c>
@@ -26031,7 +26044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A501" s="14">
         <v>42821</v>
       </c>
@@ -26078,7 +26091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A502" s="14">
         <v>42821</v>
       </c>
@@ -26125,7 +26138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A503" s="14">
         <v>42821</v>
       </c>
@@ -26172,7 +26185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A504" s="14">
         <v>42821</v>
       </c>
@@ -26219,7 +26232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A505" s="14">
         <v>42821</v>
       </c>
@@ -26266,7 +26279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A506" s="14">
         <v>42821</v>
       </c>
@@ -26313,7 +26326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A507" s="14">
         <v>42821</v>
       </c>
@@ -26360,7 +26373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A508" s="14">
         <v>42821</v>
       </c>
@@ -26407,7 +26420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A509" s="14">
         <v>42821</v>
       </c>
@@ -26454,7 +26467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A510" s="14">
         <v>42821</v>
       </c>
@@ -26501,7 +26514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A511" s="14">
         <v>42821</v>
       </c>
@@ -26548,7 +26561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A512" s="14">
         <v>42821</v>
       </c>
@@ -26595,7 +26608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A513" s="14">
         <v>42821</v>
       </c>
@@ -26642,7 +26655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A514" s="14">
         <v>42821</v>
       </c>
@@ -26689,7 +26702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A515" s="14">
         <v>42821</v>
       </c>
@@ -26736,7 +26749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A516" s="14">
         <v>42821</v>
       </c>
@@ -26783,7 +26796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A517" s="14">
         <v>42821</v>
       </c>
@@ -26830,7 +26843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A518" s="14">
         <v>42821</v>
       </c>
@@ -26877,7 +26890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A519" s="14">
         <v>42821</v>
       </c>
@@ -26924,7 +26937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A520" s="14">
         <v>42821</v>
       </c>
@@ -26971,7 +26984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A521" s="14">
         <v>42821</v>
       </c>
@@ -27018,7 +27031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A522" s="14">
         <v>42821</v>
       </c>
@@ -27065,7 +27078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A523" s="14">
         <v>42821</v>
       </c>
@@ -27112,7 +27125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A524" s="24">
         <v>42822</v>
       </c>
@@ -27159,7 +27172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A525" s="24">
         <v>42822</v>
       </c>
@@ -27206,7 +27219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A526" s="24">
         <v>42822</v>
       </c>
@@ -27253,7 +27266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A527" s="24">
         <v>42822</v>
       </c>
@@ -27300,7 +27313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A528" s="24">
         <v>42822</v>
       </c>
@@ -27347,7 +27360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A529" s="24">
         <v>42822</v>
       </c>
@@ -27394,7 +27407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A530" s="24">
         <v>42822</v>
       </c>
@@ -27441,7 +27454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A531" s="24">
         <v>42822</v>
       </c>
@@ -27488,7 +27501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A532" s="24">
         <v>42822</v>
       </c>
@@ -27535,7 +27548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A533" s="24">
         <v>42822</v>
       </c>
@@ -27582,7 +27595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A534" s="24">
         <v>42822</v>
       </c>
@@ -27629,7 +27642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A535" s="24">
         <v>42822</v>
       </c>
@@ -27676,7 +27689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A536" s="24">
         <v>42822</v>
       </c>
@@ -27723,7 +27736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A537" s="24">
         <v>42822</v>
       </c>
@@ -27770,7 +27783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A538" s="24">
         <v>42822</v>
       </c>
@@ -27817,7 +27830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A539" s="24">
         <v>42822</v>
       </c>
@@ -27864,7 +27877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A540" s="24">
         <v>42822</v>
       </c>
@@ -27911,7 +27924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A541" s="24">
         <v>42822</v>
       </c>
@@ -27958,7 +27971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A542" s="24">
         <v>42822</v>
       </c>
@@ -28005,7 +28018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A543" s="24">
         <v>42822</v>
       </c>
@@ -28052,7 +28065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A544" s="24">
         <v>42822</v>
       </c>
@@ -28099,7 +28112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A545" s="24">
         <v>42822</v>
       </c>
@@ -28146,7 +28159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A546" s="24">
         <v>42822</v>
       </c>
@@ -28193,7 +28206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A547" s="24">
         <v>42822</v>
       </c>
@@ -28240,7 +28253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A548" s="24">
         <v>42822</v>
       </c>
@@ -28287,7 +28300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A549" s="24">
         <v>42822</v>
       </c>
@@ -28334,7 +28347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A550" s="24">
         <v>42822</v>
       </c>
@@ -28381,7 +28394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A551" s="24">
         <v>42822</v>
       </c>
@@ -28428,7 +28441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A552" s="24">
         <v>42822</v>
       </c>
@@ -28475,7 +28488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A553" s="24">
         <v>42822</v>
       </c>
@@ -28522,7 +28535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A554" s="24">
         <v>42822</v>
       </c>
@@ -28569,7 +28582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A555" s="24">
         <v>42822</v>
       </c>
@@ -28616,7 +28629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A556" s="24">
         <v>42822</v>
       </c>
@@ -28663,7 +28676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A557" s="24">
         <v>42822</v>
       </c>
@@ -28710,7 +28723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A558" s="24">
         <v>42822</v>
       </c>
@@ -28757,7 +28770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A559" s="24">
         <v>42822</v>
       </c>
@@ -28804,7 +28817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A560" s="24">
         <v>42822</v>
       </c>
@@ -28851,7 +28864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A561" s="24">
         <v>42822</v>
       </c>
@@ -28898,7 +28911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A562" s="24">
         <v>42822</v>
       </c>
@@ -28945,7 +28958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A563" s="24">
         <v>42822</v>
       </c>
@@ -28992,7 +29005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A564" s="24">
         <v>42822</v>
       </c>
@@ -29039,7 +29052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A565" s="24">
         <v>42822</v>
       </c>
@@ -29086,7 +29099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A566" s="24">
         <v>42822</v>
       </c>
@@ -29133,7 +29146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A567" s="24">
         <v>42822</v>
       </c>
@@ -29180,7 +29193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A568" s="24">
         <v>42822</v>
       </c>
@@ -29227,7 +29240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A569" s="24">
         <v>42822</v>
       </c>
@@ -29274,7 +29287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A570" s="24">
         <v>42822</v>
       </c>
@@ -29321,7 +29334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A571" s="24">
         <v>42822</v>
       </c>
@@ -29368,7 +29381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A572" s="24">
         <v>42822</v>
       </c>
@@ -29415,7 +29428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A573" s="24">
         <v>42822</v>
       </c>
@@ -29462,7 +29475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A574" s="24">
         <v>42822</v>
       </c>
@@ -29509,7 +29522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A575" s="24">
         <v>42822</v>
       </c>
@@ -29556,7 +29569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A576" s="24">
         <v>42822</v>
       </c>
@@ -29603,7 +29616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A577" s="24">
         <v>42822</v>
       </c>
@@ -29650,7 +29663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A578" s="24">
         <v>42822</v>
       </c>
@@ -29697,7 +29710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A579" s="24">
         <v>42822</v>
       </c>
@@ -29744,7 +29757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A580" s="24">
         <v>42822</v>
       </c>
@@ -29791,7 +29804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A581" s="24">
         <v>42822</v>
       </c>
@@ -29838,7 +29851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A582" s="24">
         <v>42822</v>
       </c>
@@ -29885,7 +29898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A583" s="24">
         <v>42822</v>
       </c>
@@ -29932,7 +29945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A584" s="24">
         <v>42822</v>
       </c>
@@ -29979,7 +29992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A585" s="24">
         <v>42822</v>
       </c>
@@ -30026,7 +30039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A586" s="24">
         <v>42822</v>
       </c>
@@ -30073,7 +30086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A587" s="24">
         <v>42822</v>
       </c>
@@ -30120,7 +30133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A588" s="24">
         <v>42822</v>
       </c>
@@ -30167,7 +30180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A589" s="24">
         <v>42822</v>
       </c>
@@ -30214,7 +30227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A590" s="24">
         <v>42822</v>
       </c>
@@ -30261,7 +30274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A591" s="24">
         <v>42822</v>
       </c>
@@ -30308,7 +30321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A592" s="24">
         <v>42822</v>
       </c>
@@ -30355,7 +30368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A593" s="24">
         <v>42822</v>
       </c>
@@ -30402,7 +30415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A594" s="24">
         <v>42822</v>
       </c>
@@ -30449,7 +30462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A595" s="24">
         <v>42822</v>
       </c>
@@ -30496,7 +30509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A596" s="24">
         <v>42822</v>
       </c>
@@ -30543,7 +30556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A597" s="24">
         <v>42822</v>
       </c>
@@ -30590,7 +30603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A598" s="24">
         <v>42822</v>
       </c>
@@ -30637,7 +30650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A599" s="24">
         <v>42822</v>
       </c>
@@ -30684,7 +30697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A600" s="24">
         <v>42822</v>
       </c>
@@ -30731,7 +30744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A601" s="24">
         <v>42822</v>
       </c>
@@ -30778,7 +30791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A602" s="24">
         <v>42822</v>
       </c>
@@ -30825,7 +30838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A603" s="24">
         <v>42822</v>
       </c>
@@ -30872,7 +30885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A604" s="24">
         <v>42822</v>
       </c>
@@ -30919,7 +30932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A605" s="24">
         <v>42822</v>
       </c>
@@ -30966,7 +30979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A606" s="24">
         <v>42822</v>
       </c>
@@ -31013,7 +31026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A607" s="24">
         <v>42822</v>
       </c>
@@ -31060,7 +31073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A608" s="24">
         <v>42822</v>
       </c>
@@ -31107,7 +31120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A609" s="24">
         <v>42822</v>
       </c>
@@ -31154,7 +31167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A610" s="24">
         <v>42822</v>
       </c>
@@ -31201,7 +31214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A611" s="24">
         <v>42822</v>
       </c>
@@ -31248,7 +31261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A612" s="24">
         <v>42822</v>
       </c>
@@ -31295,7 +31308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A613" s="24">
         <v>42822</v>
       </c>
@@ -31342,7 +31355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A614" s="24">
         <v>42822</v>
       </c>
@@ -31389,7 +31402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A615" s="24">
         <v>42822</v>
       </c>
@@ -31436,7 +31449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A616" s="24">
         <v>42822</v>
       </c>
@@ -31483,7 +31496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A617" s="24">
         <v>42822</v>
       </c>
@@ -31530,7 +31543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A618" s="24">
         <v>42822</v>
       </c>
@@ -31577,7 +31590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A619" s="24">
         <v>42822</v>
       </c>
@@ -31624,7 +31637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A620" s="24">
         <v>42822</v>
       </c>
@@ -31671,7 +31684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A621" s="24">
         <v>42822</v>
       </c>
@@ -31718,7 +31731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A622" s="24">
         <v>42822</v>
       </c>
@@ -31765,7 +31778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A623" s="24">
         <v>42822</v>
       </c>
@@ -31812,7 +31825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A624" s="24">
         <v>42822</v>
       </c>
@@ -31859,7 +31872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A625" s="24">
         <v>42822</v>
       </c>
@@ -31906,7 +31919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A626" s="24">
         <v>42822</v>
       </c>
@@ -31953,7 +31966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A627" s="24">
         <v>42822</v>
       </c>
@@ -32000,7 +32013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A628" s="24">
         <v>42822</v>
       </c>
@@ -32047,7 +32060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A629" s="24">
         <v>42822</v>
       </c>
@@ -32094,7 +32107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A630" s="24">
         <v>42822</v>
       </c>
@@ -32141,7 +32154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A631" s="24">
         <v>42822</v>
       </c>
@@ -32188,7 +32201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A632" s="24">
         <v>42822</v>
       </c>
@@ -32235,7 +32248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A633" s="24">
         <v>42822</v>
       </c>
@@ -32282,7 +32295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A634" s="24">
         <v>42822</v>
       </c>
@@ -32329,7 +32342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A635" s="24">
         <v>42822</v>
       </c>
@@ -32376,7 +32389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A636" s="24">
         <v>42822</v>
       </c>
@@ -32423,7 +32436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A637" s="24">
         <v>42822</v>
       </c>
@@ -32470,7 +32483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A638" s="24">
         <v>42822</v>
       </c>
@@ -32517,7 +32530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A639" s="24">
         <v>42822</v>
       </c>
@@ -32564,7 +32577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A640" s="24">
         <v>42822</v>
       </c>
@@ -32611,7 +32624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A641" s="24">
         <v>42822</v>
       </c>
@@ -32658,7 +32671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A642" s="24">
         <v>42822</v>
       </c>
@@ -32705,7 +32718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A643" s="24">
         <v>42822</v>
       </c>
@@ -32752,7 +32765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A644" s="24">
         <v>42822</v>
       </c>
@@ -32799,7 +32812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A645" s="24">
         <v>42822</v>
       </c>
@@ -32846,7 +32859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A646" s="24">
         <v>42822</v>
       </c>
@@ -32893,7 +32906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A647" s="24">
         <v>42822</v>
       </c>
@@ -32940,7 +32953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A648" s="24">
         <v>42822</v>
       </c>
@@ -32987,7 +33000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A649" s="24">
         <v>42822</v>
       </c>
@@ -33034,7 +33047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A650" s="24">
         <v>42822</v>
       </c>
@@ -33081,7 +33094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A651" s="34">
         <v>42831</v>
       </c>
@@ -33126,7 +33139,7 @@
       </c>
       <c r="O651" s="49"/>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A652" s="34">
         <v>42831</v>
       </c>
@@ -33171,7 +33184,7 @@
       </c>
       <c r="O652" s="49"/>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A653" s="34">
         <v>42831</v>
       </c>
@@ -33216,7 +33229,7 @@
       </c>
       <c r="O653" s="49"/>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A654" s="34">
         <v>42831</v>
       </c>
@@ -33261,7 +33274,7 @@
       </c>
       <c r="O654" s="49"/>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A655" s="34">
         <v>42831</v>
       </c>
@@ -33306,7 +33319,7 @@
       </c>
       <c r="O655" s="49"/>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A656" s="34">
         <v>42831</v>
       </c>
@@ -33351,7 +33364,7 @@
       </c>
       <c r="O656" s="49"/>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A657" s="34">
         <v>42831</v>
       </c>
@@ -33396,7 +33409,7 @@
       </c>
       <c r="O657" s="49"/>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A658" s="34">
         <v>42831</v>
       </c>
@@ -33441,7 +33454,7 @@
       </c>
       <c r="O658" s="49"/>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A659" s="34">
         <v>42831</v>
       </c>
@@ -33486,7 +33499,7 @@
       </c>
       <c r="O659" s="49"/>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A660" s="34">
         <v>42831</v>
       </c>
@@ -33531,7 +33544,7 @@
       </c>
       <c r="O660" s="49"/>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A661" s="34">
         <v>42831</v>
       </c>
@@ -33576,7 +33589,7 @@
       </c>
       <c r="O661" s="49"/>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A662" s="34">
         <v>42831</v>
       </c>
@@ -33621,7 +33634,7 @@
       </c>
       <c r="O662" s="49"/>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A663" s="34">
         <v>42831</v>
       </c>
@@ -33666,7 +33679,7 @@
       </c>
       <c r="O663" s="49"/>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A664" s="34">
         <v>42831</v>
       </c>
@@ -33711,7 +33724,7 @@
       </c>
       <c r="O664" s="49"/>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A665" s="34">
         <v>42831</v>
       </c>
@@ -33756,7 +33769,7 @@
       </c>
       <c r="O665" s="49"/>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A666" s="34">
         <v>42831</v>
       </c>
@@ -33801,7 +33814,7 @@
       </c>
       <c r="O666" s="49"/>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A667" s="34">
         <v>42831</v>
       </c>
@@ -33846,7 +33859,7 @@
       </c>
       <c r="O667" s="49"/>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A668" s="34">
         <v>42831</v>
       </c>
@@ -33891,7 +33904,7 @@
       </c>
       <c r="O668" s="49"/>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A669" s="34">
         <v>42831</v>
       </c>
@@ -33936,7 +33949,7 @@
       </c>
       <c r="O669" s="49"/>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A670" s="34">
         <v>42831</v>
       </c>
@@ -33981,7 +33994,7 @@
       </c>
       <c r="O670" s="49"/>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A671" s="34">
         <v>42831</v>
       </c>
@@ -34026,7 +34039,7 @@
       </c>
       <c r="O671" s="49"/>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A672" s="34">
         <v>42831</v>
       </c>
@@ -34071,7 +34084,7 @@
       </c>
       <c r="O672" s="49"/>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A673" s="34">
         <v>42831</v>
       </c>
@@ -34116,7 +34129,7 @@
       </c>
       <c r="O673" s="49"/>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A674" s="34">
         <v>42831</v>
       </c>
@@ -34161,7 +34174,7 @@
       </c>
       <c r="O674" s="49"/>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A675" s="34">
         <v>42831</v>
       </c>
@@ -34206,7 +34219,7 @@
       </c>
       <c r="O675" s="49"/>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A676" s="34">
         <v>42831</v>
       </c>
@@ -34251,7 +34264,7 @@
       </c>
       <c r="O676" s="49"/>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A677" s="34">
         <v>42831</v>
       </c>
@@ -34296,7 +34309,7 @@
       </c>
       <c r="O677" s="49"/>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A678" s="34">
         <v>42831</v>
       </c>
@@ -34341,7 +34354,7 @@
       </c>
       <c r="O678" s="49"/>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A679" s="44">
         <v>42831</v>
       </c>
@@ -34398,12 +34411,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2"/>
+  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34412,12 +34425,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3"/>
+  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
